--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="604">
   <si>
     <t>Index</t>
   </si>
@@ -40,820 +40,1792 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>S Florida</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
     <t>Nevada</t>
   </si>
   <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Kent St</t>
   </si>
   <si>
     <t>Miami (OH)</t>
   </si>
   <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
+    <t>Iowa</t>
   </si>
   <si>
     <t>Navy</t>
   </si>
   <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>S Florida</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Kent St</t>
-  </si>
-  <si>
     <t>Purdue</t>
   </si>
   <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Kennesaw St</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>SDAK</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>UTAH</t>
   </si>
   <si>
     <t>NEV</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>GT</t>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>SAC</t>
   </si>
   <si>
     <t>M-OH</t>
   </si>
   <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>SHSU</t>
+    <t>IOWA</t>
   </si>
   <si>
     <t>NAVY</t>
   </si>
   <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
     <t>PUR</t>
   </si>
   <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>IDST</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>KENN</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>MTSU</t>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>72.3</t>
+  </si>
+  <si>
+    <t>79.3</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>76.7</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>73.7</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>72.7</t>
+  </si>
+  <si>
+    <t>76.3</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>78.7</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>73.3</t>
+  </si>
+  <si>
+    <t>75.3</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>78.3</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>77.7</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>65.3</t>
+  </si>
+  <si>
+    <t>63.3</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>63.7</t>
+  </si>
+  <si>
+    <t>59.7</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>61.3</t>
+  </si>
+  <si>
+    <t>65.7</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>74.7</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>66.3</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>75.7</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>58.7</t>
+  </si>
+  <si>
+    <t>49.7</t>
+  </si>
+  <si>
+    <t>62.3</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>54.3</t>
   </si>
   <si>
     <t>72.0</t>
   </si>
   <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.420</t>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>53.3</t>
+  </si>
+  <si>
+    <t>54.7</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.180</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.620</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.284</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.320</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.338</t>
   </si>
   <si>
     <t>0.356</t>
   </si>
   <si>
-    <t>0.462</t>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.470</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.385</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.360</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.233</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.290</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.310</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>27.7</t>
   </si>
   <si>
     <t>29.0</t>
   </si>
   <si>
+    <t>32.7</t>
+  </si>
+  <si>
     <t>24.0</t>
   </si>
   <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>31.7</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
     <t>21.0</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>39.7</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>48.7</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>25.7</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>46.3</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>0.570</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.467</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>0.240</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>0.436</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.330</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.274</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.590</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.530</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.671</t>
   </si>
 </sst>
 </file>
@@ -1257,13 +2229,13 @@
         <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>451</v>
       </c>
       <c r="G2" t="s">
-        <v>274</v>
+        <v>519</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1277,22 +2249,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
+        <v>520</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1303,22 +2275,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
         <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="G4" t="s">
-        <v>276</v>
+        <v>521</v>
       </c>
       <c r="H4">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1329,22 +2301,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
         <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>522</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1355,19 +2327,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>523</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -1381,19 +2353,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="F7" t="s">
-        <v>272</v>
+        <v>455</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>524</v>
       </c>
       <c r="H7">
         <v>82</v>
@@ -1407,22 +2379,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="F8" t="s">
-        <v>272</v>
+        <v>456</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>525</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1433,19 +2405,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="F9" t="s">
-        <v>272</v>
+        <v>457</v>
       </c>
       <c r="G9" t="s">
-        <v>272</v>
+        <v>526</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1459,22 +2431,22 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>451</v>
       </c>
       <c r="G10" t="s">
-        <v>272</v>
+        <v>527</v>
       </c>
       <c r="H10">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1485,19 +2457,19 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>458</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>528</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1511,19 +2483,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>459</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>529</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -1537,19 +2509,19 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>460</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -1563,19 +2535,19 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>452</v>
       </c>
       <c r="G14" t="s">
-        <v>272</v>
+        <v>530</v>
       </c>
       <c r="H14">
         <v>100</v>
@@ -1592,16 +2564,16 @@
         <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="F15" t="s">
-        <v>272</v>
+        <v>461</v>
       </c>
       <c r="G15" t="s">
-        <v>272</v>
+        <v>531</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -1618,19 +2590,19 @@
         <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="F16" t="s">
-        <v>272</v>
+        <v>462</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>532</v>
       </c>
       <c r="H16">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1644,16 +2616,16 @@
         <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s">
-        <v>272</v>
+        <v>461</v>
       </c>
       <c r="G17" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -1670,19 +2642,19 @@
         <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>463</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>533</v>
       </c>
       <c r="H18">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1696,19 +2668,19 @@
         <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="F19" t="s">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="G19" t="s">
-        <v>272</v>
+        <v>534</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1722,16 +2694,16 @@
         <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>353</v>
       </c>
       <c r="F20" t="s">
-        <v>272</v>
+        <v>465</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>535</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -1748,16 +2720,16 @@
         <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="F21" t="s">
-        <v>272</v>
+        <v>466</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>533</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -1774,19 +2746,19 @@
         <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>536</v>
       </c>
       <c r="H22">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1800,19 +2772,19 @@
         <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="F23" t="s">
-        <v>272</v>
+        <v>468</v>
       </c>
       <c r="G23" t="s">
-        <v>272</v>
+        <v>537</v>
       </c>
       <c r="H23">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1826,19 +2798,19 @@
         <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="F24" t="s">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>538</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1849,19 +2821,19 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="F25" t="s">
-        <v>272</v>
+        <v>470</v>
       </c>
       <c r="G25" t="s">
-        <v>272</v>
+        <v>449</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -1875,22 +2847,22 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>471</v>
       </c>
       <c r="G26" t="s">
-        <v>272</v>
+        <v>539</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1901,22 +2873,22 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="F27" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="G27" t="s">
-        <v>272</v>
+        <v>540</v>
       </c>
       <c r="H27">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1927,22 +2899,22 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="F28" t="s">
-        <v>272</v>
+        <v>473</v>
       </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>541</v>
       </c>
       <c r="H28">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1953,22 +2925,22 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>542</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1979,22 +2951,22 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="E30" t="s">
-        <v>272</v>
+        <v>363</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>475</v>
       </c>
       <c r="G30" t="s">
-        <v>272</v>
+        <v>543</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2005,22 +2977,22 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2031,22 +3003,22 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>453</v>
       </c>
       <c r="G32" t="s">
-        <v>272</v>
+        <v>544</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2057,22 +3029,22 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>477</v>
       </c>
       <c r="G33" t="s">
-        <v>272</v>
+        <v>545</v>
       </c>
       <c r="H33">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2083,19 +3055,19 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E34" t="s">
-        <v>272</v>
+        <v>367</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>456</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>546</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -2109,19 +3081,19 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="E35" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="G35" t="s">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -2135,22 +3107,22 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="E36" t="s">
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>479</v>
       </c>
       <c r="G36" t="s">
-        <v>272</v>
+        <v>547</v>
       </c>
       <c r="H36">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2161,22 +3133,22 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="G37" t="s">
-        <v>272</v>
+        <v>535</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2187,19 +3159,19 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="E38" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="F38" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
+        <v>441</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -2213,22 +3185,22 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="G39" t="s">
-        <v>272</v>
+        <v>441</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2239,22 +3211,22 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E40" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>481</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>548</v>
       </c>
       <c r="H40">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2265,22 +3237,22 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>272</v>
+        <v>374</v>
       </c>
       <c r="F41" t="s">
-        <v>272</v>
+        <v>459</v>
       </c>
       <c r="G41" t="s">
-        <v>272</v>
+        <v>549</v>
       </c>
       <c r="H41">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2291,22 +3263,22 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="E42" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>482</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2317,22 +3289,22 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E43" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>458</v>
       </c>
       <c r="G43" t="s">
-        <v>272</v>
+        <v>550</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2343,22 +3315,22 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="G44" t="s">
-        <v>272</v>
+        <v>551</v>
       </c>
       <c r="H44">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2369,22 +3341,22 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="F45" t="s">
-        <v>272</v>
+        <v>459</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
+        <v>424</v>
       </c>
       <c r="H45">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2395,19 +3367,19 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="F46" t="s">
-        <v>272</v>
+        <v>477</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -2421,22 +3393,22 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E47" t="s">
-        <v>272</v>
+        <v>379</v>
       </c>
       <c r="F47" t="s">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="G47" t="s">
-        <v>272</v>
+        <v>552</v>
       </c>
       <c r="H47">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2447,22 +3419,22 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E48" t="s">
-        <v>272</v>
+        <v>380</v>
       </c>
       <c r="F48" t="s">
-        <v>272</v>
+        <v>484</v>
       </c>
       <c r="G48" t="s">
-        <v>272</v>
+        <v>441</v>
       </c>
       <c r="H48">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2473,22 +3445,22 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E49" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>462</v>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>553</v>
       </c>
       <c r="H49">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2499,22 +3471,22 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="E50" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="G50" t="s">
-        <v>272</v>
+        <v>554</v>
       </c>
       <c r="H50">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2525,22 +3497,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="F51" t="s">
-        <v>272</v>
+        <v>462</v>
       </c>
       <c r="G51" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2551,22 +3523,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>383</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
+        <v>459</v>
       </c>
       <c r="G52" t="s">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="H52">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2577,19 +3549,19 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
         <v>272</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="F53" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="G53" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -2603,22 +3575,22 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E54" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="F54" t="s">
-        <v>272</v>
+        <v>486</v>
       </c>
       <c r="G54" t="s">
-        <v>272</v>
+        <v>421</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2629,19 +3601,19 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>386</v>
       </c>
       <c r="F55" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
-        <v>272</v>
+        <v>555</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -2655,22 +3627,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="E56" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="F56" t="s">
-        <v>272</v>
+        <v>488</v>
       </c>
       <c r="G56" t="s">
-        <v>272</v>
+        <v>556</v>
       </c>
       <c r="H56">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2681,22 +3653,22 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="E57" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="F57" t="s">
-        <v>272</v>
+        <v>489</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>374</v>
       </c>
       <c r="H57">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2707,19 +3679,19 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E58" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="F58" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="G58" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -2733,22 +3705,22 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>272</v>
+        <v>390</v>
       </c>
       <c r="F59" t="s">
-        <v>272</v>
+        <v>463</v>
       </c>
       <c r="G59" t="s">
-        <v>272</v>
+        <v>557</v>
       </c>
       <c r="H59">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2759,22 +3731,22 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="F60" t="s">
-        <v>272</v>
+        <v>458</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>558</v>
       </c>
       <c r="H60">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2785,22 +3757,22 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E61" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="F61" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
       <c r="G61" t="s">
-        <v>272</v>
+        <v>559</v>
       </c>
       <c r="H61">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2811,22 +3783,22 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="E62" t="s">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="F62" t="s">
-        <v>272</v>
+        <v>454</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
+        <v>560</v>
       </c>
       <c r="H62">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2837,19 +3809,19 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="G63" t="s">
-        <v>272</v>
+        <v>561</v>
       </c>
       <c r="H63">
         <v>100</v>
@@ -2863,19 +3835,19 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="F64" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
       <c r="G64" t="s">
-        <v>272</v>
+        <v>562</v>
       </c>
       <c r="H64">
         <v>100</v>
@@ -2889,19 +3861,19 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>395</v>
       </c>
       <c r="F65" t="s">
-        <v>272</v>
+        <v>492</v>
       </c>
       <c r="G65" t="s">
-        <v>272</v>
+        <v>563</v>
       </c>
       <c r="H65">
         <v>82</v>
@@ -2915,22 +3887,22 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="E66" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="F66" t="s">
-        <v>272</v>
+        <v>470</v>
       </c>
       <c r="G66" t="s">
-        <v>272</v>
+        <v>564</v>
       </c>
       <c r="H66">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2941,22 +3913,22 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>397</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>493</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>565</v>
       </c>
       <c r="H67">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2967,22 +3939,22 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E68" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="F68" t="s">
-        <v>272</v>
+        <v>494</v>
       </c>
       <c r="G68" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="H68">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2993,22 +3965,22 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="F69" t="s">
-        <v>272</v>
+        <v>495</v>
       </c>
       <c r="G69" t="s">
-        <v>272</v>
+        <v>566</v>
       </c>
       <c r="H69">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3019,22 +3991,22 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="F70" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="G70" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
       <c r="H70">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3045,19 +4017,19 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="E71" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="F71" t="s">
-        <v>272</v>
+        <v>494</v>
       </c>
       <c r="G71" t="s">
-        <v>272</v>
+        <v>568</v>
       </c>
       <c r="H71">
         <v>100</v>
@@ -3071,22 +4043,22 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="E72" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="F72" t="s">
-        <v>272</v>
+        <v>496</v>
       </c>
       <c r="G72" t="s">
-        <v>272</v>
+        <v>569</v>
       </c>
       <c r="H72">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3097,22 +4069,22 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="E73" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="F73" t="s">
-        <v>272</v>
+        <v>497</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="H73">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3123,22 +4095,22 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="E74" t="s">
-        <v>272</v>
+        <v>402</v>
       </c>
       <c r="F74" t="s">
-        <v>272</v>
+        <v>498</v>
       </c>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>570</v>
       </c>
       <c r="H74">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3149,22 +4121,22 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="E75" t="s">
-        <v>272</v>
+        <v>403</v>
       </c>
       <c r="F75" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="G75" t="s">
-        <v>272</v>
+        <v>434</v>
       </c>
       <c r="H75">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3175,19 +4147,19 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E76" t="s">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="F76" t="s">
-        <v>272</v>
+        <v>452</v>
       </c>
       <c r="G76" t="s">
-        <v>272</v>
+        <v>406</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -3201,22 +4173,22 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E77" t="s">
-        <v>272</v>
+        <v>405</v>
       </c>
       <c r="F77" t="s">
-        <v>272</v>
+        <v>499</v>
       </c>
       <c r="G77" t="s">
-        <v>272</v>
+        <v>571</v>
       </c>
       <c r="H77">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3227,22 +4199,22 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E78" t="s">
-        <v>272</v>
+        <v>406</v>
       </c>
       <c r="F78" t="s">
-        <v>272</v>
+        <v>455</v>
       </c>
       <c r="G78" t="s">
-        <v>272</v>
+        <v>572</v>
       </c>
       <c r="H78">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3253,19 +4225,19 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E79" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="F79" t="s">
-        <v>272</v>
+        <v>500</v>
       </c>
       <c r="G79" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="H79">
         <v>100</v>
@@ -3279,19 +4251,19 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
+        <v>408</v>
       </c>
       <c r="F80" t="s">
-        <v>272</v>
+        <v>470</v>
       </c>
       <c r="G80" t="s">
-        <v>272</v>
+        <v>573</v>
       </c>
       <c r="H80">
         <v>100</v>
@@ -3305,19 +4277,19 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E81" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="F81" t="s">
-        <v>272</v>
+        <v>489</v>
       </c>
       <c r="G81" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="H81">
         <v>100</v>
@@ -3331,19 +4303,19 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="E82" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="F82" t="s">
-        <v>272</v>
+        <v>501</v>
       </c>
       <c r="G82" t="s">
-        <v>272</v>
+        <v>574</v>
       </c>
       <c r="H82">
         <v>100</v>
@@ -3357,19 +4329,19 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="E83" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="F83" t="s">
-        <v>272</v>
+        <v>468</v>
       </c>
       <c r="G83" t="s">
-        <v>272</v>
+        <v>421</v>
       </c>
       <c r="H83">
         <v>100</v>
@@ -3383,22 +4355,22 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D84" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="E84" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
       <c r="F84" t="s">
-        <v>272</v>
+        <v>458</v>
       </c>
       <c r="G84" t="s">
-        <v>272</v>
+        <v>575</v>
       </c>
       <c r="H84">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3409,22 +4381,22 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="E85" t="s">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="F85" t="s">
-        <v>272</v>
+        <v>502</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>576</v>
       </c>
       <c r="H85">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3435,22 +4407,22 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D86" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E86" t="s">
-        <v>272</v>
+        <v>411</v>
       </c>
       <c r="F86" t="s">
-        <v>272</v>
+        <v>459</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>522</v>
       </c>
       <c r="H86">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3461,22 +4433,22 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E87" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="F87" t="s">
-        <v>272</v>
+        <v>503</v>
       </c>
       <c r="G87" t="s">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="H87">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3487,22 +4459,22 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D88" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="F88" t="s">
-        <v>272</v>
+        <v>504</v>
       </c>
       <c r="G88" t="s">
-        <v>272</v>
+        <v>577</v>
       </c>
       <c r="H88">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3513,22 +4485,22 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="E89" t="s">
-        <v>272</v>
+        <v>413</v>
       </c>
       <c r="F89" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="G89" t="s">
-        <v>272</v>
+        <v>578</v>
       </c>
       <c r="H89">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3539,19 +4511,19 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="E90" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="F90" t="s">
-        <v>272</v>
+        <v>473</v>
       </c>
       <c r="G90" t="s">
-        <v>272</v>
+        <v>449</v>
       </c>
       <c r="H90">
         <v>100</v>
@@ -3565,22 +4537,22 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="E91" t="s">
-        <v>272</v>
+        <v>415</v>
       </c>
       <c r="F91" t="s">
-        <v>272</v>
+        <v>505</v>
       </c>
       <c r="G91" t="s">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="H91">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3591,22 +4563,22 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D92" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="E92" t="s">
-        <v>272</v>
+        <v>416</v>
       </c>
       <c r="F92" t="s">
-        <v>272</v>
+        <v>477</v>
       </c>
       <c r="G92" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="H92">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3617,22 +4589,22 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="D93" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>417</v>
       </c>
       <c r="F93" t="s">
-        <v>272</v>
+        <v>457</v>
       </c>
       <c r="G93" t="s">
-        <v>272</v>
+        <v>579</v>
       </c>
       <c r="H93">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3643,22 +4615,22 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="E94" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="F94" t="s">
-        <v>272</v>
+        <v>506</v>
       </c>
       <c r="G94" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="H94">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3669,22 +4641,22 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E95" t="s">
-        <v>272</v>
+        <v>418</v>
       </c>
       <c r="F95" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="G95" t="s">
-        <v>272</v>
+        <v>580</v>
       </c>
       <c r="H95">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3695,22 +4667,22 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="F96" t="s">
-        <v>272</v>
+        <v>507</v>
       </c>
       <c r="G96" t="s">
-        <v>272</v>
+        <v>581</v>
       </c>
       <c r="H96">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3721,22 +4693,22 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D97" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>272</v>
+        <v>420</v>
       </c>
       <c r="F97" t="s">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
+        <v>582</v>
       </c>
       <c r="H97">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3747,19 +4719,19 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="E98" t="s">
-        <v>272</v>
+        <v>421</v>
       </c>
       <c r="F98" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="G98" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="H98">
         <v>86</v>
@@ -3773,22 +4745,22 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D99" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E99" t="s">
-        <v>272</v>
+        <v>422</v>
       </c>
       <c r="F99" t="s">
-        <v>272</v>
+        <v>482</v>
       </c>
       <c r="G99" t="s">
-        <v>272</v>
+        <v>583</v>
       </c>
       <c r="H99">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3799,22 +4771,22 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D100" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="E100" t="s">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="F100" t="s">
-        <v>272</v>
+        <v>508</v>
       </c>
       <c r="G100" t="s">
-        <v>272</v>
+        <v>584</v>
       </c>
       <c r="H100">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3825,19 +4797,19 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E101" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="F101" t="s">
-        <v>272</v>
+        <v>500</v>
       </c>
       <c r="G101" t="s">
-        <v>272</v>
+        <v>585</v>
       </c>
       <c r="H101">
         <v>100</v>
@@ -3851,22 +4823,22 @@
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="E102" t="s">
-        <v>272</v>
+        <v>424</v>
       </c>
       <c r="F102" t="s">
-        <v>272</v>
+        <v>462</v>
       </c>
       <c r="G102" t="s">
-        <v>272</v>
+        <v>586</v>
       </c>
       <c r="H102">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3877,22 +4849,22 @@
         <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="E103" t="s">
-        <v>272</v>
+        <v>425</v>
       </c>
       <c r="F103" t="s">
-        <v>272</v>
+        <v>509</v>
       </c>
       <c r="G103" t="s">
-        <v>272</v>
+        <v>446</v>
       </c>
       <c r="H103">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3903,22 +4875,22 @@
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="E104" t="s">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="F104" t="s">
-        <v>272</v>
+        <v>473</v>
       </c>
       <c r="G104" t="s">
-        <v>272</v>
+        <v>587</v>
       </c>
       <c r="H104">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3929,22 +4901,22 @@
         <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D105" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E105" t="s">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="F105" t="s">
-        <v>272</v>
+        <v>510</v>
       </c>
       <c r="G105" t="s">
-        <v>272</v>
+        <v>588</v>
       </c>
       <c r="H105">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3955,22 +4927,22 @@
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="E106" t="s">
-        <v>272</v>
+        <v>428</v>
       </c>
       <c r="F106" t="s">
-        <v>272</v>
+        <v>511</v>
       </c>
       <c r="G106" t="s">
-        <v>272</v>
+        <v>589</v>
       </c>
       <c r="H106">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3981,22 +4953,22 @@
         <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D107" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="E107" t="s">
-        <v>272</v>
+        <v>429</v>
       </c>
       <c r="F107" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="G107" t="s">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="H107">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4007,19 +4979,19 @@
         <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D108" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E108" t="s">
-        <v>272</v>
+        <v>430</v>
       </c>
       <c r="F108" t="s">
-        <v>272</v>
+        <v>459</v>
       </c>
       <c r="G108" t="s">
-        <v>272</v>
+        <v>527</v>
       </c>
       <c r="H108">
         <v>88</v>
@@ -4033,22 +5005,22 @@
         <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D109" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="E109" t="s">
-        <v>272</v>
+        <v>431</v>
       </c>
       <c r="F109" t="s">
-        <v>272</v>
+        <v>473</v>
       </c>
       <c r="G109" t="s">
-        <v>272</v>
+        <v>449</v>
       </c>
       <c r="H109">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4059,19 +5031,19 @@
         <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D110" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="E110" t="s">
-        <v>272</v>
+        <v>432</v>
       </c>
       <c r="F110" t="s">
-        <v>272</v>
+        <v>460</v>
       </c>
       <c r="G110" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="H110">
         <v>100</v>
@@ -4085,22 +5057,22 @@
         <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D111" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="E111" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="F111" t="s">
-        <v>272</v>
+        <v>498</v>
       </c>
       <c r="G111" t="s">
-        <v>272</v>
+        <v>590</v>
       </c>
       <c r="H111">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4111,22 +5083,22 @@
         <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D112" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="E112" t="s">
-        <v>272</v>
+        <v>433</v>
       </c>
       <c r="F112" t="s">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="G112" t="s">
-        <v>272</v>
+        <v>591</v>
       </c>
       <c r="H112">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4137,19 +5109,19 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="E113" t="s">
-        <v>272</v>
+        <v>434</v>
       </c>
       <c r="F113" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="G113" t="s">
-        <v>272</v>
+        <v>592</v>
       </c>
       <c r="H113">
         <v>100</v>
@@ -4163,22 +5135,22 @@
         <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D114" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="E114" t="s">
-        <v>272</v>
+        <v>435</v>
       </c>
       <c r="F114" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="G114" t="s">
-        <v>272</v>
+        <v>593</v>
       </c>
       <c r="H114">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4189,22 +5161,22 @@
         <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D115" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="E115" t="s">
-        <v>272</v>
+        <v>436</v>
       </c>
       <c r="F115" t="s">
-        <v>272</v>
+        <v>512</v>
       </c>
       <c r="G115" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="H115">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4215,22 +5187,22 @@
         <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="E116" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="F116" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="G116" t="s">
-        <v>272</v>
+        <v>594</v>
       </c>
       <c r="H116">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4241,19 +5213,19 @@
         <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="E117" t="s">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="F117" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="G117" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="H117">
         <v>100</v>
@@ -4267,22 +5239,22 @@
         <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="E118" t="s">
-        <v>272</v>
+        <v>439</v>
       </c>
       <c r="F118" t="s">
-        <v>272</v>
+        <v>456</v>
       </c>
       <c r="G118" t="s">
-        <v>272</v>
+        <v>595</v>
       </c>
       <c r="H118">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4293,19 +5265,19 @@
         <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D119" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E119" t="s">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="F119" t="s">
-        <v>272</v>
+        <v>493</v>
       </c>
       <c r="G119" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="H119">
         <v>100</v>
@@ -4319,22 +5291,22 @@
         <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="E120" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="F120" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="G120" t="s">
-        <v>272</v>
+        <v>395</v>
       </c>
       <c r="H120">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4345,19 +5317,19 @@
         <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D121" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="E121" t="s">
-        <v>272</v>
+        <v>441</v>
       </c>
       <c r="F121" t="s">
-        <v>272</v>
+        <v>513</v>
       </c>
       <c r="G121" t="s">
-        <v>272</v>
+        <v>416</v>
       </c>
       <c r="H121">
         <v>100</v>
@@ -4371,22 +5343,22 @@
         <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D122" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="E122" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="F122" t="s">
-        <v>272</v>
+        <v>514</v>
       </c>
       <c r="G122" t="s">
-        <v>272</v>
+        <v>596</v>
       </c>
       <c r="H122">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4397,22 +5369,22 @@
         <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D123" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E123" t="s">
-        <v>272</v>
+        <v>397</v>
       </c>
       <c r="F123" t="s">
-        <v>272</v>
+        <v>515</v>
       </c>
       <c r="G123" t="s">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="H123">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4423,22 +5395,22 @@
         <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D124" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="E124" t="s">
-        <v>272</v>
+        <v>442</v>
       </c>
       <c r="F124" t="s">
-        <v>272</v>
+        <v>509</v>
       </c>
       <c r="G124" t="s">
-        <v>272</v>
+        <v>413</v>
       </c>
       <c r="H124">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4449,22 +5421,22 @@
         <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D125" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="E125" t="s">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="F125" t="s">
-        <v>272</v>
+        <v>516</v>
       </c>
       <c r="G125" t="s">
-        <v>272</v>
+        <v>428</v>
       </c>
       <c r="H125">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4475,22 +5447,22 @@
         <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D126" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="E126" t="s">
-        <v>272</v>
+        <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>272</v>
+        <v>506</v>
       </c>
       <c r="G126" t="s">
-        <v>272</v>
+        <v>597</v>
       </c>
       <c r="H126">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4501,22 +5473,22 @@
         <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="E127" t="s">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="F127" t="s">
-        <v>272</v>
+        <v>517</v>
       </c>
       <c r="G127" t="s">
-        <v>272</v>
+        <v>598</v>
       </c>
       <c r="H127">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4527,22 +5499,22 @@
         <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D128" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="E128" t="s">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="F128" t="s">
-        <v>272</v>
+        <v>504</v>
       </c>
       <c r="G128" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="H128">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4553,19 +5525,19 @@
         <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D129" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="E129" t="s">
-        <v>272</v>
+        <v>446</v>
       </c>
       <c r="F129" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="G129" t="s">
-        <v>272</v>
+        <v>542</v>
       </c>
       <c r="H129">
         <v>100</v>
@@ -4579,22 +5551,22 @@
         <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D130" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="E130" t="s">
-        <v>272</v>
+        <v>447</v>
       </c>
       <c r="F130" t="s">
-        <v>272</v>
+        <v>498</v>
       </c>
       <c r="G130" t="s">
-        <v>272</v>
+        <v>599</v>
       </c>
       <c r="H130">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4605,22 +5577,22 @@
         <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D131" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="E131" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="F131" t="s">
-        <v>272</v>
+        <v>479</v>
       </c>
       <c r="G131" t="s">
-        <v>272</v>
+        <v>600</v>
       </c>
       <c r="H131">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4631,22 +5603,22 @@
         <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D132" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="E132" t="s">
-        <v>272</v>
+        <v>448</v>
       </c>
       <c r="F132" t="s">
-        <v>272</v>
+        <v>513</v>
       </c>
       <c r="G132" t="s">
-        <v>272</v>
+        <v>601</v>
       </c>
       <c r="H132">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4657,19 +5629,19 @@
         <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D133" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="E133" t="s">
-        <v>272</v>
+        <v>422</v>
       </c>
       <c r="F133" t="s">
-        <v>272</v>
+        <v>466</v>
       </c>
       <c r="G133" t="s">
-        <v>272</v>
+        <v>602</v>
       </c>
       <c r="H133">
         <v>100</v>
@@ -4686,19 +5658,19 @@
         <v>266</v>
       </c>
       <c r="D134" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="E134" t="s">
-        <v>272</v>
+        <v>449</v>
       </c>
       <c r="F134" t="s">
-        <v>272</v>
+        <v>457</v>
       </c>
       <c r="G134" t="s">
-        <v>272</v>
+        <v>540</v>
       </c>
       <c r="H134">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4712,19 +5684,19 @@
         <v>267</v>
       </c>
       <c r="D135" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="E135" t="s">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="F135" t="s">
-        <v>272</v>
+        <v>518</v>
       </c>
       <c r="G135" t="s">
-        <v>272</v>
+        <v>603</v>
       </c>
       <c r="H135">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="592">
   <si>
     <t>Index</t>
   </si>
@@ -46,27 +46,30 @@
     <t>UTSA</t>
   </si>
   <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
     <t>Syracuse</t>
   </si>
   <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
     <t>Tulsa</t>
   </si>
   <si>
     <t>Utah St</t>
   </si>
   <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
     <t>S Florida</t>
   </si>
   <si>
     <t>Clemson</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
@@ -76,304 +79,319 @@
     <t>Memphis</t>
   </si>
   <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
     <t>N Carolina</t>
   </si>
   <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Miami</t>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
   </si>
   <si>
     <t>James Mad</t>
   </si>
   <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
     <t>Sam Hous St</t>
   </si>
   <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Air Force</t>
   </si>
   <si>
     <t>GA Southern</t>
   </si>
   <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Ball St</t>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
   <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
   </si>
   <si>
     <t>VA Tech</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Indiana</t>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Duke</t>
   </si>
   <si>
     <t>UNLV</t>
   </si>
   <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Troy</t>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
   </si>
   <si>
     <t>W Kentucky</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>BYU</t>
+    <t>NC State</t>
   </si>
   <si>
     <t>Illinois</t>
@@ -382,48 +400,30 @@
     <t>Fresno St</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>Kennesaw St</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
   </si>
   <si>
     <t>Ohio St</t>
   </si>
   <si>
-    <t>Florida Intl</t>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Houston</t>
   </si>
   <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
     <t>UL Monroe</t>
   </si>
   <si>
@@ -436,36 +436,39 @@
     <t>Iowa</t>
   </si>
   <si>
+    <t>Purdue</t>
+  </si>
+  <si>
     <t>Navy</t>
   </si>
   <si>
-    <t>Purdue</t>
-  </si>
-  <si>
     <t>TTU</t>
   </si>
   <si>
+    <t>MICH</t>
+  </si>
+  <si>
     <t>SYR</t>
   </si>
   <si>
-    <t>MICH</t>
-  </si>
-  <si>
     <t>TLSA</t>
   </si>
   <si>
     <t>USU</t>
   </si>
   <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
     <t>FLA</t>
   </si>
   <si>
     <t>CLEM</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>TENN</t>
   </si>
   <si>
@@ -475,337 +478,334 @@
     <t>MEM</t>
   </si>
   <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
     <t>CAL</t>
   </si>
   <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
     <t>UNC</t>
   </si>
   <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>MIA</t>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>SHSU</t>
   </si>
   <si>
     <t>JMU</t>
   </si>
   <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>RUTG</t>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
   </si>
   <si>
     <t>LIB</t>
   </si>
   <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>SC</t>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>AFA</t>
   </si>
   <si>
     <t>GASO</t>
   </si>
   <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>SDAK</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>BALL</t>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>WASH</t>
   </si>
   <si>
     <t>COLO</t>
   </si>
   <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>OKST</t>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>CSU</t>
   </si>
   <si>
     <t>VT</t>
   </si>
   <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>TROY</t>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>CLT</t>
   </si>
   <si>
     <t>UK</t>
   </si>
   <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>CLT</t>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>NU</t>
   </si>
   <si>
     <t>WKU</t>
   </si>
   <si>
+    <t>KENT</t>
+  </si>
+  <si>
     <t>EIU</t>
   </si>
   <si>
     <t>FRES</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>KENN</t>
-  </si>
-  <si>
-    <t>MINN</t>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>FIU</t>
   </si>
   <si>
     <t>OSU</t>
   </si>
   <si>
-    <t>FIU</t>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>HOU</t>
   </si>
   <si>
     <t>VAN</t>
   </si>
   <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
     <t>ULM</t>
   </si>
   <si>
-    <t>SAC</t>
+    <t>TAR</t>
   </si>
   <si>
     <t>M-OH</t>
@@ -814,1015 +814,979 @@
     <t>IOWA</t>
   </si>
   <si>
+    <t>PUR</t>
+  </si>
+  <si>
     <t>NAVY</t>
   </si>
   <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>88.0</t>
+    <t>80.7</t>
+  </si>
+  <si>
+    <t>62.3</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>79.3</t>
+  </si>
+  <si>
+    <t>76.7</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>72.7</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>83.3</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>77.7</t>
   </si>
   <si>
     <t>72.3</t>
   </si>
   <si>
-    <t>79.3</t>
-  </si>
-  <si>
-    <t>67.3</t>
-  </si>
-  <si>
-    <t>76.7</t>
-  </si>
-  <si>
-    <t>77.3</t>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>65.3</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>74.7</t>
+  </si>
+  <si>
+    <t>68.3</t>
   </si>
   <si>
     <t>73.7</t>
   </si>
   <si>
-    <t>68.7</t>
-  </si>
-  <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>72.7</t>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>62.0</t>
   </si>
   <si>
     <t>76.3</t>
   </si>
   <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>78.7</t>
-  </si>
-  <si>
-    <t>71.7</t>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>73.3</t>
   </si>
   <si>
     <t>74.0</t>
   </si>
   <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>68.3</t>
-  </si>
-  <si>
-    <t>73.3</t>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>61.3</t>
+  </si>
+  <si>
+    <t>65.7</t>
+  </si>
+  <si>
+    <t>61.7</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>69.3</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>55.3</t>
   </si>
   <si>
     <t>75.3</t>
   </si>
   <si>
-    <t>70.7</t>
+    <t>67.0</t>
   </si>
   <si>
     <t>78.3</t>
   </si>
   <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>77.7</t>
-  </si>
-  <si>
-    <t>62.7</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>65.3</t>
-  </si>
-  <si>
-    <t>63.3</t>
-  </si>
-  <si>
-    <t>68.0</t>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>58.7</t>
+  </si>
+  <si>
+    <t>75.7</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>49.7</t>
   </si>
   <si>
     <t>63.7</t>
   </si>
   <si>
-    <t>59.7</t>
-  </si>
-  <si>
-    <t>71.3</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>61.3</t>
-  </si>
-  <si>
-    <t>65.7</t>
-  </si>
-  <si>
-    <t>64.3</t>
-  </si>
-  <si>
-    <t>69.7</t>
-  </si>
-  <si>
-    <t>74.7</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>66.3</t>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>56.7</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>52.7</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>54.3</t>
   </si>
   <si>
     <t>57.0</t>
   </si>
   <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>75.7</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>58.7</t>
-  </si>
-  <si>
-    <t>49.7</t>
-  </si>
-  <si>
-    <t>62.3</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>54.3</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>60.7</t>
-  </si>
-  <si>
-    <t>66.7</t>
-  </si>
-  <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>59.3</t>
-  </si>
-  <si>
-    <t>53.3</t>
+    <t>56.3</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>0.180</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.500</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.468</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.430</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.530</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.217</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.340</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>0.233</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.310</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>32.3</t>
   </si>
   <si>
     <t>54.7</t>
   </si>
   <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>0.238</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.578</t>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>39.7</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>25.7</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>30.7</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>31.7</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>48.7</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>46.3</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.290</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.330</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.436</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.260</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.590</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.247</t>
   </si>
   <si>
     <t>0.647</t>
   </si>
   <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.180</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t>0.174</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.620</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.320</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.239</t>
+    <t>0.539</t>
   </si>
   <si>
     <t>0.292</t>
   </si>
   <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.418</t>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.161</t>
   </si>
   <si>
     <t>0.338</t>
   </si>
   <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.470</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>0.450</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.519</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.234</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.510</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>0.119</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.233</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.290</t>
-  </si>
-  <si>
-    <t>0.477</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
-    <t>0.310</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>29.7</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>20.3</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>31.7</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>27.3</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>43.7</t>
-  </si>
-  <si>
-    <t>39.7</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>48.7</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>30.3</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>25.7</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>39.3</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>46.3</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.446</t>
-  </si>
-  <si>
-    <t>0.480</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.273</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.453</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>0.570</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.467</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.240</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.313</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.630</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.274</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>0.543</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.590</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.380</t>
-  </si>
-  <si>
-    <t>0.303</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.521</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.339</t>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.528</t>
   </si>
   <si>
     <t>0.306</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.207</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.530</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.202</t>
   </si>
   <si>
     <t>0.671</t>
@@ -2229,13 +2193,13 @@
         <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -2255,13 +2219,13 @@
         <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2281,16 +2245,16 @@
         <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G4" t="s">
-        <v>521</v>
+        <v>402</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2307,16 +2271,16 @@
         <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2330,16 +2294,16 @@
         <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>446</v>
       </c>
       <c r="G6" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -2356,16 +2320,16 @@
         <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H7">
         <v>82</v>
@@ -2382,19 +2346,19 @@
         <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G8" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H8">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2408,16 +2372,16 @@
         <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F9" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G9" t="s">
-        <v>526</v>
+        <v>382</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -2434,19 +2398,19 @@
         <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G10" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2460,16 +2424,16 @@
         <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F11" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G11" t="s">
-        <v>528</v>
+        <v>388</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -2489,13 +2453,13 @@
         <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G12" t="s">
-        <v>529</v>
+        <v>338</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -2512,16 +2476,16 @@
         <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G13" t="s">
-        <v>375</v>
+        <v>520</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -2541,13 +2505,13 @@
         <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G14" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="H14">
         <v>100</v>
@@ -2564,16 +2528,16 @@
         <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G15" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -2590,19 +2554,19 @@
         <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F16" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G16" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H16">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2616,19 +2580,19 @@
         <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G17" t="s">
-        <v>372</v>
+        <v>524</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2642,19 +2606,19 @@
         <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F18" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G18" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H18">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2671,16 +2635,16 @@
         <v>281</v>
       </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G19" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H19">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2694,16 +2658,16 @@
         <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F20" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G20" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -2720,19 +2684,19 @@
         <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F21" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G21" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2746,16 +2710,16 @@
         <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G22" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -2772,19 +2736,19 @@
         <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F23" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G23" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H23">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2798,19 +2762,19 @@
         <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E24" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="G24" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H24">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2821,22 +2785,22 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E25" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F25" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G25" t="s">
-        <v>449</v>
+        <v>531</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2847,22 +2811,22 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E26" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F26" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G26" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="H26">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2873,19 +2837,19 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F27" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="G27" t="s">
-        <v>540</v>
+        <v>405</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -2899,22 +2863,22 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F28" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G28" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2925,22 +2889,22 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E29" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F29" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G29" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="H29">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2951,22 +2915,22 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E30" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F30" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G30" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="H30">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2977,22 +2941,22 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E31" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F31" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G31" t="s">
-        <v>394</v>
+        <v>533</v>
       </c>
       <c r="H31">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3003,22 +2967,22 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E32" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G32" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="H32">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3032,19 +2996,19 @@
         <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E33" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F33" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G33" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3058,16 +3022,16 @@
         <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E34" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G34" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -3084,19 +3048,19 @@
         <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E35" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F35" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G35" t="s">
-        <v>444</v>
+        <v>537</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3110,19 +3074,19 @@
         <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="G36" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H36">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3136,19 +3100,19 @@
         <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="E37" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F37" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G37" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H37">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3162,16 +3126,16 @@
         <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F38" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G38" t="s">
-        <v>441</v>
+        <v>540</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -3185,19 +3149,19 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E39" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F39" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="G39" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -3211,22 +3175,22 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="F40" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="G40" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="H40">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3237,22 +3201,22 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F41" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G41" t="s">
-        <v>549</v>
+        <v>383</v>
       </c>
       <c r="H41">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3263,22 +3227,22 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E42" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F42" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="G42" t="s">
-        <v>414</v>
+        <v>541</v>
       </c>
       <c r="H42">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3289,22 +3253,22 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F43" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="G43" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="H43">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3315,22 +3279,22 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F44" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="G44" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3341,19 +3305,19 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F45" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="G45" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="H45">
         <v>100</v>
@@ -3370,19 +3334,19 @@
         <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="E46" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F46" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G46" t="s">
-        <v>443</v>
+        <v>542</v>
       </c>
       <c r="H46">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3396,16 +3360,16 @@
         <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F47" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G47" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -3422,19 +3386,19 @@
         <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E48" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F48" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G48" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3445,22 +3409,22 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E49" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F49" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G49" t="s">
-        <v>553</v>
+        <v>404</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3471,22 +3435,22 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E50" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F50" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G50" t="s">
-        <v>554</v>
+        <v>422</v>
       </c>
       <c r="H50">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3497,22 +3461,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D51" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E51" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F51" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G51" t="s">
-        <v>375</v>
+        <v>544</v>
       </c>
       <c r="H51">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3523,22 +3487,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E52" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="G52" t="s">
-        <v>410</v>
+        <v>545</v>
       </c>
       <c r="H52">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3549,19 +3513,19 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E53" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F53" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G53" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -3578,19 +3542,19 @@
         <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F54" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G54" t="s">
-        <v>421</v>
+        <v>547</v>
       </c>
       <c r="H54">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3601,22 +3565,22 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E55" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F55" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G55" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H55">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3627,22 +3591,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E56" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F56" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="G56" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H56">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3656,16 +3620,16 @@
         <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E57" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F57" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G57" t="s">
-        <v>374</v>
+        <v>513</v>
       </c>
       <c r="H57">
         <v>81</v>
@@ -3682,19 +3646,19 @@
         <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E58" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F58" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="G58" t="s">
-        <v>365</v>
+        <v>550</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3711,16 +3675,16 @@
         <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F59" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G59" t="s">
-        <v>557</v>
+        <v>418</v>
       </c>
       <c r="H59">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3734,16 +3698,16 @@
         <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="F60" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="G60" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H60">
         <v>69</v>
@@ -3760,19 +3724,19 @@
         <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E61" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="F61" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>559</v>
+        <v>379</v>
       </c>
       <c r="H61">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3786,19 +3750,19 @@
         <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E62" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="G62" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="H62">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3812,19 +3776,19 @@
         <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="E63" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F63" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="G63" t="s">
-        <v>561</v>
+        <v>396</v>
       </c>
       <c r="H63">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3838,16 +3802,16 @@
         <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F64" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G64" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H64">
         <v>100</v>
@@ -3864,19 +3828,19 @@
         <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F65" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G65" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H65">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3890,19 +3854,19 @@
         <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="E66" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F66" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="G66" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3916,16 +3880,16 @@
         <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E67" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F67" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="G67" t="s">
-        <v>565</v>
+        <v>399</v>
       </c>
       <c r="H67">
         <v>87</v>
@@ -3942,19 +3906,19 @@
         <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F68" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G68" t="s">
-        <v>355</v>
+        <v>530</v>
       </c>
       <c r="H68">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3968,19 +3932,19 @@
         <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E69" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F69" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G69" t="s">
-        <v>566</v>
+        <v>342</v>
       </c>
       <c r="H69">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3994,19 +3958,19 @@
         <v>205</v>
       </c>
       <c r="D70" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="F70" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G70" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="H70">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4020,16 +3984,16 @@
         <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E71" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F71" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G71" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="H71">
         <v>100</v>
@@ -4046,19 +4010,19 @@
         <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E72" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="F72" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G72" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="H72">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4072,19 +4036,19 @@
         <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E73" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F73" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G73" t="s">
-        <v>414</v>
+        <v>558</v>
       </c>
       <c r="H73">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4098,16 +4062,16 @@
         <v>209</v>
       </c>
       <c r="D74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E74" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F74" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G74" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
       <c r="H74">
         <v>89</v>
@@ -4124,16 +4088,16 @@
         <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F75" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="G75" t="s">
-        <v>434</v>
+        <v>559</v>
       </c>
       <c r="H75">
         <v>100</v>
@@ -4150,16 +4114,16 @@
         <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F76" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="G76" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -4176,19 +4140,19 @@
         <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E77" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F77" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G77" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="H77">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4202,19 +4166,19 @@
         <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="E78" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F78" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G78" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="H78">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4228,19 +4192,19 @@
         <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="E79" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F79" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G79" t="s">
-        <v>349</v>
+        <v>561</v>
       </c>
       <c r="H79">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4254,16 +4218,16 @@
         <v>215</v>
       </c>
       <c r="D80" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="E80" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="F80" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="G80" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="H80">
         <v>100</v>
@@ -4280,16 +4244,16 @@
         <v>216</v>
       </c>
       <c r="D81" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E81" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F81" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G81" t="s">
-        <v>361</v>
+        <v>563</v>
       </c>
       <c r="H81">
         <v>100</v>
@@ -4306,16 +4270,16 @@
         <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E82" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="F82" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="G82" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="H82">
         <v>100</v>
@@ -4329,22 +4293,22 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="E83" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F83" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="G83" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="H83">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4355,22 +4319,22 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D84" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E84" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="F84" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="G84" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="H84">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4381,19 +4345,19 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E85" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F85" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="G85" t="s">
-        <v>576</v>
+        <v>369</v>
       </c>
       <c r="H85">
         <v>100</v>
@@ -4407,22 +4371,22 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E86" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F86" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="G86" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="H86">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4433,19 +4397,19 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="E87" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F87" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G87" t="s">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="H87">
         <v>100</v>
@@ -4459,22 +4423,22 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="E88" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="F88" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="G88" t="s">
-        <v>577</v>
+        <v>403</v>
       </c>
       <c r="H88">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4485,22 +4449,22 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D89" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E89" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F89" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="G89" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="H89">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4511,22 +4475,22 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D90" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E90" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F90" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="G90" t="s">
-        <v>449</v>
+        <v>369</v>
       </c>
       <c r="H90">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4537,19 +4501,19 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D91" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E91" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F91" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="G91" t="s">
-        <v>445</v>
+        <v>568</v>
       </c>
       <c r="H91">
         <v>100</v>
@@ -4563,19 +4527,19 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D92" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E92" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F92" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="G92" t="s">
-        <v>385</v>
+        <v>569</v>
       </c>
       <c r="H92">
         <v>100</v>
@@ -4589,22 +4553,22 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E93" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F93" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="G93" t="s">
-        <v>579</v>
+        <v>340</v>
       </c>
       <c r="H93">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4618,16 +4582,16 @@
         <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E94" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="F94" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="G94" t="s">
-        <v>351</v>
+        <v>515</v>
       </c>
       <c r="H94">
         <v>100</v>
@@ -4644,19 +4608,19 @@
         <v>229</v>
       </c>
       <c r="D95" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="E95" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F95" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G95" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H95">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4673,13 +4637,13 @@
         <v>311</v>
       </c>
       <c r="E96" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="F96" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="G96" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H96">
         <v>81</v>
@@ -4696,19 +4660,19 @@
         <v>231</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="E97" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F97" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="G97" t="s">
-        <v>582</v>
+        <v>367</v>
       </c>
       <c r="H97">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4722,19 +4686,19 @@
         <v>232</v>
       </c>
       <c r="D98" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="E98" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F98" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="G98" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="H98">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4748,19 +4712,19 @@
         <v>233</v>
       </c>
       <c r="D99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E99" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F99" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="G99" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="H99">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4774,19 +4738,19 @@
         <v>234</v>
       </c>
       <c r="D100" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E100" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F100" t="s">
-        <v>508</v>
+        <v>443</v>
       </c>
       <c r="G100" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="H100">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4800,16 +4764,16 @@
         <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="E101" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="F101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G101" t="s">
-        <v>585</v>
+        <v>348</v>
       </c>
       <c r="H101">
         <v>100</v>
@@ -4826,16 +4790,16 @@
         <v>236</v>
       </c>
       <c r="D102" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E102" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F102" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="G102" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="H102">
         <v>100</v>
@@ -4852,19 +4816,19 @@
         <v>237</v>
       </c>
       <c r="D103" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E103" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F103" t="s">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="G103" t="s">
-        <v>446</v>
+        <v>575</v>
       </c>
       <c r="H103">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4878,16 +4842,16 @@
         <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="E104" t="s">
-        <v>426</v>
+        <v>347</v>
       </c>
       <c r="F104" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="G104" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="H104">
         <v>100</v>
@@ -4904,19 +4868,19 @@
         <v>239</v>
       </c>
       <c r="D105" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F105" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G105" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="H105">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4930,19 +4894,19 @@
         <v>240</v>
       </c>
       <c r="D106" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="E106" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F106" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G106" t="s">
-        <v>589</v>
+        <v>519</v>
       </c>
       <c r="H106">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4956,19 +4920,19 @@
         <v>241</v>
       </c>
       <c r="D107" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F107" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="G107" t="s">
-        <v>444</v>
+        <v>553</v>
       </c>
       <c r="H107">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4982,16 +4946,16 @@
         <v>242</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F108" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G108" t="s">
-        <v>527</v>
+        <v>382</v>
       </c>
       <c r="H108">
         <v>88</v>
@@ -5008,19 +4972,19 @@
         <v>243</v>
       </c>
       <c r="D109" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E109" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F109" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="G109" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
       <c r="H109">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5034,16 +4998,16 @@
         <v>244</v>
       </c>
       <c r="D110" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="F110" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="G110" t="s">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="H110">
         <v>100</v>
@@ -5057,19 +5021,19 @@
         <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="D111" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E111" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="F111" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G111" t="s">
-        <v>590</v>
+        <v>338</v>
       </c>
       <c r="H111">
         <v>100</v>
@@ -5083,22 +5047,22 @@
         <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D112" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="E112" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F112" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G112" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="H112">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5109,19 +5073,19 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="E113" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F113" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="G113" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="H113">
         <v>100</v>
@@ -5135,22 +5099,22 @@
         <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="E114" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F114" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G114" t="s">
-        <v>593</v>
+        <v>383</v>
       </c>
       <c r="H114">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5161,22 +5125,22 @@
         <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D115" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E115" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="F115" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G115" t="s">
-        <v>388</v>
+        <v>580</v>
       </c>
       <c r="H115">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5187,22 +5151,22 @@
         <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="E116" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F116" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G116" t="s">
-        <v>594</v>
+        <v>388</v>
       </c>
       <c r="H116">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5216,16 +5180,16 @@
         <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E117" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F117" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="G117" t="s">
-        <v>364</v>
+        <v>581</v>
       </c>
       <c r="H117">
         <v>100</v>
@@ -5242,19 +5206,19 @@
         <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="E118" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F118" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G118" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="H118">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5268,19 +5232,19 @@
         <v>251</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="E119" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F119" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="G119" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="H119">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5294,19 +5258,19 @@
         <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E120" t="s">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="F120" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="G120" t="s">
-        <v>395</v>
+        <v>514</v>
       </c>
       <c r="H120">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5320,19 +5284,19 @@
         <v>253</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="E121" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F121" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G121" t="s">
-        <v>416</v>
+        <v>583</v>
       </c>
       <c r="H121">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5346,19 +5310,19 @@
         <v>254</v>
       </c>
       <c r="D122" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E122" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="F122" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G122" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="H122">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5372,16 +5336,16 @@
         <v>255</v>
       </c>
       <c r="D123" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="E123" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F123" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="G123" t="s">
-        <v>359</v>
+        <v>569</v>
       </c>
       <c r="H123">
         <v>73</v>
@@ -5398,19 +5362,19 @@
         <v>256</v>
       </c>
       <c r="D124" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E124" t="s">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="F124" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G124" t="s">
-        <v>413</v>
+        <v>585</v>
       </c>
       <c r="H124">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5424,19 +5388,19 @@
         <v>257</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E125" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F125" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G125" t="s">
-        <v>428</v>
+        <v>586</v>
       </c>
       <c r="H125">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5450,19 +5414,19 @@
         <v>258</v>
       </c>
       <c r="D126" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E126" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="F126" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G126" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="H126">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5476,19 +5440,19 @@
         <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E127" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="F127" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="G127" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="H127">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5502,16 +5466,16 @@
         <v>260</v>
       </c>
       <c r="D128" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E128" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F128" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="G128" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="H128">
         <v>100</v>
@@ -5528,16 +5492,16 @@
         <v>261</v>
       </c>
       <c r="D129" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E129" t="s">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="F129" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="G129" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="H129">
         <v>100</v>
@@ -5554,16 +5518,16 @@
         <v>262</v>
       </c>
       <c r="D130" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="E130" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F130" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G130" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="H130">
         <v>100</v>
@@ -5580,19 +5544,19 @@
         <v>263</v>
       </c>
       <c r="D131" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E131" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F131" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="G131" t="s">
-        <v>600</v>
+        <v>394</v>
       </c>
       <c r="H131">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5606,16 +5570,16 @@
         <v>264</v>
       </c>
       <c r="D132" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E132" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F132" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="G132" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="H132">
         <v>100</v>
@@ -5632,16 +5596,16 @@
         <v>265</v>
       </c>
       <c r="D133" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E133" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="F133" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="G133" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H133">
         <v>100</v>
@@ -5658,16 +5622,16 @@
         <v>266</v>
       </c>
       <c r="D134" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E134" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F134" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="G134" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
       <c r="H134">
         <v>100</v>
@@ -5684,16 +5648,16 @@
         <v>267</v>
       </c>
       <c r="D135" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E135" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F135" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="G135" t="s">
-        <v>603</v>
+        <v>387</v>
       </c>
       <c r="H135">
         <v>100</v>
